--- a/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
+++ b/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>Kevin Le Tutour</t>
   </si>
@@ -98,12 +98,6 @@
     <t>ISO 10303-1323 ed4 basic_geometric_topology Document</t>
   </si>
   <si>
-    <t>ISO 10303-1386 ed2 mesh_topology Document</t>
-  </si>
-  <si>
-    <t>ISO 10303-1386 ed2 mesh_topology ARM EXPRESS</t>
-  </si>
-  <si>
     <t>ISO 10303-1507 ed3 geometrically_bounded_surface Document</t>
   </si>
   <si>
@@ -387,13 +381,43 @@
   </si>
   <si>
     <t>ISO 10303-42 ed5 geometric_and_topological_representation EXPRESS</t>
+  </si>
+  <si>
+    <t>N9207</t>
+  </si>
+  <si>
+    <t>N9208</t>
+  </si>
+  <si>
+    <t>N9209</t>
+  </si>
+  <si>
+    <t>N9210</t>
+  </si>
+  <si>
+    <t>ISO 10303-409 ed2 ap209_multidisciplinary_analysis_and_design ARM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-409 ed2 ap209_multidisciplinary_analysis_and_design MIM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-410 ed4 ap210_electronic_assembly_interconnect_and_packaging_design ARM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-410 ed4 ap210_electronic_assembly_interconnect_and_packaging_design MIM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-442 ed2 ap242_managed_model_based_3d_engineering ARM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-442 ed2 ap242_managed_model_based_3d_engineering MIM LF EXPRESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -404,6 +428,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,6 +484,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,7 +785,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,7 +801,7 @@
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -781,7 +817,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -797,7 +833,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -813,7 +849,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -829,7 +865,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -845,7 +881,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -861,7 +897,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -877,7 +913,7 @@
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -893,7 +929,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -909,7 +945,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -925,7 +961,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -941,7 +977,7 @@
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -957,7 +993,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -973,7 +1009,7 @@
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -989,7 +1025,7 @@
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1005,7 +1041,7 @@
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
@@ -1021,7 +1057,7 @@
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -1037,7 +1073,7 @@
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1053,7 +1089,7 @@
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -1069,7 +1105,7 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -1085,7 +1121,7 @@
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -1101,7 +1137,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -1117,7 +1153,7 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
@@ -1133,7 +1169,7 @@
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1149,7 +1185,7 @@
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1165,7 +1201,7 @@
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -1181,7 +1217,7 @@
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -1197,7 +1233,7 @@
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -1213,7 +1249,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -1229,7 +1265,7 @@
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -1245,7 +1281,7 @@
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -1261,7 +1297,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -1277,7 +1313,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
@@ -1293,7 +1329,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -1309,7 +1345,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
@@ -1325,7 +1361,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -1341,7 +1377,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -1357,7 +1393,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -1373,7 +1409,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
@@ -1389,7 +1425,7 @@
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
@@ -1405,7 +1441,7 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -1421,7 +1457,7 @@
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -1437,7 +1473,7 @@
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
@@ -1453,7 +1489,7 @@
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
@@ -1469,7 +1505,7 @@
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
@@ -1485,7 +1521,7 @@
     </row>
     <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
@@ -1501,7 +1537,7 @@
     </row>
     <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
@@ -1517,7 +1553,7 @@
     </row>
     <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
@@ -1533,7 +1569,7 @@
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
@@ -1549,7 +1585,7 @@
     </row>
     <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
@@ -1565,7 +1601,7 @@
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
@@ -1581,7 +1617,7 @@
     </row>
     <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
@@ -1597,15 +1633,15 @@
     </row>
     <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2</v>
@@ -1613,15 +1649,15 @@
     </row>
     <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2</v>
@@ -1629,7 +1665,7 @@
     </row>
     <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
@@ -1637,7 +1673,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -1645,7 +1681,7 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
@@ -1653,41 +1689,105 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
+++ b/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>Kevin Le Tutour</t>
   </si>
@@ -395,6 +395,12 @@
     <t>N9210</t>
   </si>
   <si>
+    <t>N9211</t>
+  </si>
+  <si>
+    <t>N9212</t>
+  </si>
+  <si>
     <t>ISO 10303-409 ed2 ap209_multidisciplinary_analysis_and_design ARM LF EXPRESS</t>
   </si>
   <si>
@@ -411,6 +417,12 @@
   </si>
   <si>
     <t>ISO 10303-442 ed2 ap242_managed_model_based_3d_engineering MIM LF EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-1054 ed3 value_with_unit ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>ISO 10303-1054 ed3 value_with_unit Document</t>
   </si>
 </sst>
 </file>
@@ -768,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -985,7 +997,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -1001,7 +1013,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1017,7 +1029,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
@@ -1033,7 +1045,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>2</v>
@@ -1049,7 +1061,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
@@ -1065,7 +1077,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2</v>
@@ -1081,7 +1093,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>2</v>
@@ -1097,7 +1109,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>2</v>
@@ -1113,7 +1125,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2</v>
@@ -1129,7 +1141,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
@@ -1145,7 +1157,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -1161,7 +1173,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
@@ -1177,7 +1189,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
@@ -1193,7 +1205,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>2</v>
@@ -1209,7 +1221,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2</v>
@@ -1225,7 +1237,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2</v>
@@ -1241,7 +1253,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2</v>
@@ -1257,7 +1269,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1273,7 +1285,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2</v>
@@ -1289,7 +1301,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>2</v>
@@ -1305,7 +1317,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>2</v>
@@ -1321,7 +1333,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>2</v>
@@ -1337,7 +1349,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2</v>
@@ -1353,7 +1365,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>2</v>
@@ -1369,7 +1381,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>2</v>
@@ -1385,7 +1397,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2</v>
@@ -1401,7 +1413,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>2</v>
@@ -1417,7 +1429,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2</v>
@@ -1433,7 +1445,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2</v>
@@ -1449,7 +1461,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1465,7 +1477,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
@@ -1481,7 +1493,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>2</v>
@@ -1497,7 +1509,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2</v>
@@ -1513,7 +1525,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>2</v>
@@ -1529,7 +1541,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>2</v>
@@ -1545,7 +1557,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>2</v>
@@ -1561,7 +1573,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>2</v>
@@ -1577,7 +1589,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2</v>
@@ -1593,7 +1605,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>2</v>
@@ -1609,7 +1621,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>2</v>
@@ -1625,7 +1637,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>2</v>
@@ -1638,10 +1650,10 @@
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2</v>
@@ -1654,10 +1666,10 @@
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2</v>
@@ -1673,7 +1685,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -1689,39 +1701,39 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>2</v>
@@ -1788,6 +1800,38 @@
         <v>127</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
+++ b/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
+++ b/publication/part1000/CR_Geometry/CR_Geometry_WG_Numbers_table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
   <si>
     <t>Kevin Le Tutour</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>ISO 10303-1054 ed3 value_with_unit Document</t>
+  </si>
+  <si>
+    <t>N9213</t>
+  </si>
+  <si>
+    <t>N9214</t>
+  </si>
+  <si>
+    <t>CR_Geometry wg.number.publication_set</t>
+  </si>
+  <si>
+    <t>CR_Geometry wg.number.publication_set_comments</t>
   </si>
 </sst>
 </file>
@@ -780,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1835,6 +1847,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
